--- a/AMPS2019/figures data/comparisons.xlsx
+++ b/AMPS2019/figures data/comparisons.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="magnitude" sheetId="1" r:id="rId1"/>
     <sheet name="fase" sheetId="2" r:id="rId2"/>
     <sheet name="ambos" sheetId="3" r:id="rId3"/>
+    <sheet name="FE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>km = 5</t>
   </si>
@@ -62,11 +63,45 @@
   <si>
     <t>Testes para fase somente, NMC = 1000</t>
   </si>
+  <si>
+    <t>MC = 10000</t>
+  </si>
+  <si>
+    <t>FE mean</t>
+  </si>
+  <si>
+    <t>MAG only</t>
+  </si>
+  <si>
+    <t>PHASE only</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>phi0 pior caso</t>
+  </si>
+  <si>
+    <t>phi0 random</t>
+  </si>
+  <si>
+    <t>todos os valores em Hz/Hz</t>
+  </si>
+  <si>
+    <t>FE std</t>
+  </si>
+  <si>
+    <t>PHASE ONLY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,12 +111,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -120,13 +167,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,6 +202,2461 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Fe mean</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$25:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$B$25:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5472487957028901E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.39764312150642E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1335751846473399E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9334050143425102E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5868404832126902E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6037844838613599E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.24019394946536E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$25:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$C$25:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.6829370354889601E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.40120373447692E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9106642897506101E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4384154141449501E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1034904300460801E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3729865786862795E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4794985052782405E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$25:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$D$25:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.3302348564401797E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6961770252831498E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0605437659457601E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25437669975252E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6360006072654401E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.11523958656432E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0675840644693396E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$25:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$E$25:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.9900882100856504E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5613712777088896E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8977317570133602E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2975059668812002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5331651692455698E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9489734398989E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6553587277590199E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="188088344"/>
+        <c:axId val="188087560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="188088344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188087560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="188087560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188088344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Standard</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Dev</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$36:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$B$36:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1296967360596599E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9235690696251302E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6966859641754201E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3390682088014801E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.93151165035508E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6220208175916601E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5657268824532498E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$36:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$C$36:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.5631357227666295E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4266391694701604E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1895807259957799E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0237156310388196E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6729794762961205E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3730124573197003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3482360490428401E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$36:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$D$36:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3367749719898898E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3549784337949199E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3131339853941901E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3307887252968901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2604919242967402E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2489201181642099E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3010693372688702E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FE!$A$36:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FE!$E$36:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0574809634244501E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2041053429457904E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0858903571889599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1479880564852098E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0872673458018901E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.05196901451032E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0823936964544898E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="188089912"/>
+        <c:axId val="185875960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="188089912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="185875960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="185875960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188089912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,12 +2948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -455,30 +2971,30 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -881,30 +3397,30 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -1301,21 +3817,21 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1324,32 +3840,35 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
       <c r="N28" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1400,17 +3919,17 @@
       <c r="B30" s="1">
         <v>90</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>33.6</v>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>33.53</v>
       </c>
       <c r="H30" s="1">
         <v>90</v>
@@ -1425,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>33.6</v>
+        <v>33.53</v>
       </c>
       <c r="N30" s="1">
         <v>90</v>
@@ -1448,17 +3967,17 @@
         <f>B30-15</f>
         <v>75</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>37.1</v>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>35.729999999999997</v>
       </c>
       <c r="H31" s="1">
         <f>H30-15</f>
@@ -1474,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>37.1</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="N31" s="1">
         <f>N30-15</f>
@@ -1498,17 +4017,17 @@
         <f t="shared" ref="B32:B36" si="6">B31-15</f>
         <v>60</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>41.2</v>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44.74</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" ref="H32:H36" si="7">H31-15</f>
@@ -1524,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>41.2</v>
+        <v>44.74</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ref="N32:N36" si="8">N31-15</f>
@@ -1548,17 +4067,17 @@
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>63.9</v>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>65.84</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="7"/>
@@ -1574,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>63.9</v>
+        <v>65.84</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="8"/>
@@ -1598,17 +4117,17 @@
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F34" s="1">
-        <v>84.7</v>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>85.38</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="7"/>
@@ -1621,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L34" s="1">
-        <v>84.7</v>
+        <v>85.38</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="8"/>
@@ -1648,17 +4167,17 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="F35" s="1">
-        <v>96.1</v>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E35" s="3">
+        <v>32.54</v>
+      </c>
+      <c r="F35" s="3">
+        <v>96.59</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="7"/>
@@ -1668,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K35" s="1">
-        <v>32.299999999999997</v>
+        <v>32.54</v>
       </c>
       <c r="L35" s="1">
-        <v>96.1</v>
+        <v>96.59</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="8"/>
@@ -1698,33 +4217,33 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="E36" s="1">
-        <v>90.2</v>
-      </c>
-      <c r="F36" s="1">
-        <v>98.4</v>
+      <c r="C36" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D36" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>88.82</v>
+      </c>
+      <c r="F36" s="3">
+        <v>98.77</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J36" s="1">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="K36" s="1">
-        <v>90.2</v>
+        <v>88.82</v>
       </c>
       <c r="L36" s="1">
-        <v>98.4</v>
+        <v>98.77</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="8"/>
@@ -1750,30 +4269,30 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -2192,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,30 +4733,30 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -2640,30 +5159,30 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -3060,445 +5579,445 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="N28" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="N28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>60</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>50</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>40</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="5">
         <v>30</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="5">
         <v>60</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="5">
         <v>50</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <v>40</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <v>30</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="5">
         <v>60</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="5">
         <v>50</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="5">
         <v>40</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
         <v>90</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>53.1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>96.1</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>49.38</v>
+      </c>
+      <c r="F30" s="7">
+        <v>96.76</v>
+      </c>
+      <c r="H30" s="5">
         <v>90</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K30" s="1">
-        <v>53.1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>96.1</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>49.38</v>
+      </c>
+      <c r="L30" s="5">
+        <v>96.76</v>
+      </c>
+      <c r="N30" s="5">
         <v>90</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
+      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
         <f>B30-15</f>
         <v>75</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>84.1</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F31" s="7">
+        <v>82.77</v>
+      </c>
+      <c r="H31" s="5">
         <f>H30-15</f>
         <v>75</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L31" s="1">
-        <v>84.1</v>
-      </c>
-      <c r="N31" s="1">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="L31" s="5">
+        <v>82.77</v>
+      </c>
+      <c r="N31" s="5">
         <f>N30-15</f>
         <v>75</v>
       </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
         <f t="shared" ref="B32:B36" si="6">B31-15</f>
         <v>60</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" ref="H32:H36" si="7">H31-15</f>
         <v>60</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="N32" s="1">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="N32" s="5">
         <f t="shared" ref="N32:N36" si="8">N31-15</f>
         <v>60</v>
       </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="1">
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>12</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>11.15</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>12</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>11.15</v>
+      </c>
+      <c r="N33" s="5">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="1">
+      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="H34" s="5">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="N34" s="5">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="1">
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="H35" s="5">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="N35" s="5">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="1">
+      <c r="O35" s="5">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.82</v>
+      </c>
+      <c r="H36" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="N36" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
+      <c r="O36" s="5">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3509,30 +6028,30 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -3949,12 +6468,1388 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A6:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5">
+        <v>60</v>
+      </c>
+      <c r="J7" s="5">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5">
+        <v>40</v>
+      </c>
+      <c r="L7" s="5">
+        <v>30</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5">
+        <v>60</v>
+      </c>
+      <c r="P7" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>40</v>
+      </c>
+      <c r="R7" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>90</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>29.15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>90</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>29.15</v>
+      </c>
+      <c r="N8" s="5">
+        <v>90</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <f>B8-15</f>
+        <v>75</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="5">
+        <f>H8-15</f>
+        <v>75</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="N9" s="5">
+        <f>N8-15</f>
+        <v>75</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:B14" si="0">B9-15</f>
+        <v>60</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10:H14" si="1">H9-15</f>
+        <v>60</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" ref="N10:N14" si="2">N9-15</f>
+        <v>60</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4.32</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4.32</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="O6:R6"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <f>C6-5</f>
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:I6" si="0">D6-5</f>
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12">
+        <v>60</v>
+      </c>
+      <c r="M6" s="12">
+        <f>L6-5</f>
+        <v>55</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" ref="N6:R6" si="1">M6-5</f>
+        <v>50</v>
+      </c>
+      <c r="O6" s="12">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-1.04733053536741E-4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-1.0514892530718E-4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-1.08858428456855E-4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-1.19604572865503E-4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-9.10704615818818E-5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>-6.6650970256147297E-5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-3.41714880958722E-5</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="13">
+        <v>-2.4418285516719602E-4</v>
+      </c>
+      <c r="M7" s="13">
+        <v>-3.0778591887778699E-4</v>
+      </c>
+      <c r="N7" s="13">
+        <v>-3.8560076352526601E-4</v>
+      </c>
+      <c r="O7" s="13">
+        <v>-4.51549091744905E-4</v>
+      </c>
+      <c r="P7" s="13">
+        <v>-4.8150479480212202E-4</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>-5.10724267628524E-4</v>
+      </c>
+      <c r="R7" s="13">
+        <v>-4.9788789751207705E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3.2461831654953299E-4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4.8428538041037702E-4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>7.7205724092915297E-4</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.2833880278586699E-3</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2.2573258056909399E-3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>3.9629168629240399E-3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>7.0948789382514702E-3</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="13">
+        <v>3.1592476594434802E-4</v>
+      </c>
+      <c r="M8" s="13">
+        <v>4.7449025019973202E-4</v>
+      </c>
+      <c r="N8" s="13">
+        <v>7.7239781160635501E-4</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1.3117119783633299E-3</v>
+      </c>
+      <c r="P8" s="13">
+        <v>2.28980234913074E-3</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>4.0365862613823897E-3</v>
+      </c>
+      <c r="R8" s="13">
+        <v>7.1247945485558304E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="12">
+        <v>2</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <f>C11-5</f>
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:I11" si="2">D11-5</f>
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12">
+        <v>60</v>
+      </c>
+      <c r="M11" s="12">
+        <f>L11-5</f>
+        <v>55</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" ref="N11:R11" si="3">M11-5</f>
+        <v>50</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5.1735397933325904E-4</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6.0466256310183497E-4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6.4017245058903705E-4</v>
+      </c>
+      <c r="F12" s="9">
+        <v>7.2979808224517002E-4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8.9768921435346295E-4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.1679583612688E-3</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.61911931445671E-3</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="13">
+        <v>9.2209982382471397E-4</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1.1548573225405401E-3</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1.56349386036029E-3</v>
+      </c>
+      <c r="O12" s="13">
+        <v>1.9693845359400899E-3</v>
+      </c>
+      <c r="P12" s="13">
+        <v>2.4217303939699899E-3</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>2.7540626398422901E-3</v>
+      </c>
+      <c r="R12" s="13">
+        <v>3.3583214962169998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.5632250286304598E-4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4.2851460352992299E-4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>7.2159275400990005E-4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.28247248046065E-3</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2.2497756481978299E-3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>4.0097541311912696E-3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>7.0992146752609699E-3</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="13">
+        <v>5.0775219516712604E-4</v>
+      </c>
+      <c r="M13" s="13">
+        <v>6.6355545857318401E-4</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1.0284187054903299E-3</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1.6047673297552301E-3</v>
+      </c>
+      <c r="P13" s="13">
+        <v>2.5510553421825002E-3</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>4.1898214189159504E-3</v>
+      </c>
+      <c r="R13" s="13">
+        <v>7.2452191974482398E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="K15" s="12">
+        <v>3</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <f>C16-5</f>
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:I16" si="4">D16-5</f>
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12">
+        <v>60</v>
+      </c>
+      <c r="M16" s="12">
+        <f>L16-5</f>
+        <v>55</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" ref="N16:R16" si="5">M16-5</f>
+        <v>50</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.09533255432997E-3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.29008464230789E-3</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.71873957986114E-3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2.2876023097285099E-3</v>
+      </c>
+      <c r="G17" s="9">
+        <v>2.9478139796137201E-3</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3.4803496398338701E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3.9201272099592E-3</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="13">
+        <v>4.6706650030491E-4</v>
+      </c>
+      <c r="M17" s="13">
+        <v>6.3362835188788798E-4</v>
+      </c>
+      <c r="N17" s="13">
+        <v>8.8422796159014802E-4</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1.1804504785950401E-3</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1.53628650276499E-3</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1.8599487396029201E-3</v>
+      </c>
+      <c r="R17" s="13">
+        <v>2.5360260889802999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3.9105437621302102E-4</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5.52539898330529E-4</v>
+      </c>
+      <c r="E18" s="9">
+        <v>8.3659742927793504E-4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.3617457239258001E-3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2.3104932667702099E-3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4.0961808910151901E-3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>7.13728712060171E-3</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="13">
+        <v>3.66822236813724E-4</v>
+      </c>
+      <c r="M18" s="13">
+        <v>5.0812281651283105E-4</v>
+      </c>
+      <c r="N18" s="13">
+        <v>8.2946618387239599E-4</v>
+      </c>
+      <c r="O18" s="13">
+        <v>1.3980287332269999E-3</v>
+      </c>
+      <c r="P18" s="13">
+        <v>2.41956148991253E-3</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>4.1148268401237399E-3</v>
+      </c>
+      <c r="R18" s="13">
+        <v>7.2515164053988303E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>90</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1.5472487957028901E-3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2.6829370354889601E-3</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4.3302348564401797E-3</v>
+      </c>
+      <c r="E25" s="14">
+        <v>4.9900882100856504E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>A25-15</f>
+        <v>75</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1.39764312150642E-3</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2.40120373447692E-3</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3.6961770252831498E-3</v>
+      </c>
+      <c r="E26" s="14">
+        <v>4.5613712777088896E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" ref="A27:A31" si="6">A26-15</f>
+        <v>60</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1.1335751846473399E-3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1.9106642897506101E-3</v>
+      </c>
+      <c r="D27" s="14">
+        <v>3.0605437659457601E-3</v>
+      </c>
+      <c r="E27" s="14">
+        <v>3.8977317570133602E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="B28" s="14">
+        <v>7.9334050143425102E-4</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1.4384154141449501E-3</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2.25437669975252E-3</v>
+      </c>
+      <c r="E28" s="14">
+        <v>3.2975059668812002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="14">
+        <v>5.5868404832126902E-4</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1.1034904300460801E-3</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.6360006072654401E-3</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2.5331651692455698E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B30" s="14">
+        <v>5.6037844838613599E-4</v>
+      </c>
+      <c r="C30" s="14">
+        <v>8.3729865786862795E-4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1.11523958656432E-3</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1.9489734398989E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="B31" s="14">
+        <v>5.24019394946536E-4</v>
+      </c>
+      <c r="C31" s="14">
+        <v>6.4794985052782405E-4</v>
+      </c>
+      <c r="D31" s="14">
+        <v>9.0675840644693396E-4</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1.6553587277590199E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>90</v>
+      </c>
+      <c r="B36" s="14">
+        <v>4.1296967360596599E-4</v>
+      </c>
+      <c r="C36" s="14">
+        <v>8.5631357227666295E-4</v>
+      </c>
+      <c r="D36" s="14">
+        <v>2.3367749719898898E-3</v>
+      </c>
+      <c r="E36" s="14">
+        <v>7.0574809634244501E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>A36-15</f>
+        <v>75</v>
+      </c>
+      <c r="B37" s="14">
+        <v>3.9235690696251302E-4</v>
+      </c>
+      <c r="C37" s="14">
+        <v>8.4266391694701604E-4</v>
+      </c>
+      <c r="D37" s="14">
+        <v>2.3549784337949199E-3</v>
+      </c>
+      <c r="E37" s="14">
+        <v>7.2041053429457904E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:A42" si="7">A37-15</f>
+        <v>60</v>
+      </c>
+      <c r="B38" s="14">
+        <v>3.6966859641754201E-4</v>
+      </c>
+      <c r="C38" s="14">
+        <v>8.1895807259957799E-4</v>
+      </c>
+      <c r="D38" s="14">
+        <v>2.3131339853941901E-3</v>
+      </c>
+      <c r="E38" s="14">
+        <v>7.0858903571889599E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="B39" s="14">
+        <v>3.3390682088014801E-4</v>
+      </c>
+      <c r="C39" s="14">
+        <v>8.0237156310388196E-4</v>
+      </c>
+      <c r="D39" s="14">
+        <v>2.3307887252968901E-3</v>
+      </c>
+      <c r="E39" s="14">
+        <v>7.1479880564852098E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="B40" s="14">
+        <v>2.93151165035508E-4</v>
+      </c>
+      <c r="C40" s="14">
+        <v>7.6729794762961205E-4</v>
+      </c>
+      <c r="D40" s="14">
+        <v>2.2604919242967402E-3</v>
+      </c>
+      <c r="E40" s="14">
+        <v>7.0872673458018901E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="14">
+        <v>2.6220208175916601E-4</v>
+      </c>
+      <c r="C41" s="14">
+        <v>7.3730124573197003E-4</v>
+      </c>
+      <c r="D41" s="14">
+        <v>2.2489201181642099E-3</v>
+      </c>
+      <c r="E41" s="14">
+        <v>7.05196901451032E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="B42" s="14">
+        <v>2.5657268824532498E-4</v>
+      </c>
+      <c r="C42" s="14">
+        <v>7.3482360490428401E-4</v>
+      </c>
+      <c r="D42" s="14">
+        <v>2.3010693372688702E-3</v>
+      </c>
+      <c r="E42" s="14">
+        <v>7.0823936964544898E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/AMPS2019/figures data/comparisons.xlsx
+++ b/AMPS2019/figures data/comparisons.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A87353-698F-4F41-9B1A-B2CA62F2A4A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="magnitude" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,19 @@
     <sheet name="ambos" sheetId="3" r:id="rId3"/>
     <sheet name="FE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="33">
   <si>
     <t>km = 5</t>
   </si>
@@ -93,16 +101,50 @@
   <si>
     <t>PHASE ONLY</t>
   </si>
+  <si>
+    <t>medicao</t>
+  </si>
+  <si>
+    <t>FE med</t>
+  </si>
+  <si>
+    <t>tau error</t>
+  </si>
+  <si>
+    <t>FE [Hz/Hz]</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>FE corrigido</t>
+  </si>
+  <si>
+    <t>phi0 = 90</t>
+  </si>
+  <si>
+    <t>phi0 = 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,10 +206,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -178,18 +221,22 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -205,7 +252,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -244,7 +291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -270,7 +316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -366,6 +412,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AB5-48FD-9B14-48E48CE2539A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -453,6 +504,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AB5-48FD-9B14-48E48CE2539A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -540,6 +596,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0AB5-48FD-9B14-48E48CE2539A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -627,6 +688,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0AB5-48FD-9B14-48E48CE2539A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -694,7 +760,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="188087560"/>
@@ -756,7 +822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="188088344"/>
@@ -773,7 +839,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -799,7 +864,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -829,7 +894,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -841,7 +906,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -884,7 +949,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -910,7 +974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1006,6 +1070,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23BA-42A0-A5BC-63DBBBEC5986}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1093,6 +1162,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23BA-42A0-A5BC-63DBBBEC5986}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1180,6 +1254,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23BA-42A0-A5BC-63DBBBEC5986}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1267,6 +1346,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-23BA-42A0-A5BC-63DBBBEC5986}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1334,7 +1418,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="185875960"/>
@@ -1396,7 +1480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="188089912"/>
@@ -1413,7 +1497,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1439,7 +1522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1469,7 +1552,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2609,7 +2692,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2639,7 +2728,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2662,7 +2757,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2700,7 +2795,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2735,6 +2830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2770,9 +2882,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2945,58 +3074,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3043,7 +3172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>90</v>
       </c>
@@ -3090,7 +3219,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <f>B7-15</f>
         <v>75</v>
@@ -3140,7 +3269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <f t="shared" ref="B9:B13" si="0">B8-15</f>
         <v>60</v>
@@ -3190,7 +3319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3240,7 +3369,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3290,7 +3419,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3340,7 +3469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3390,39 +3519,39 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3469,7 +3598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>90</v>
       </c>
@@ -3516,7 +3645,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>B19-15</f>
         <v>75</v>
@@ -3566,7 +3695,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <f t="shared" ref="B21:B25" si="3">B20-15</f>
         <v>60</v>
@@ -3616,7 +3745,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3666,7 +3795,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3716,7 +3845,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3766,7 +3895,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3816,7 +3945,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3833,39 +3962,39 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
       <c r="N28" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3915,7 +4044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>90</v>
       </c>
@@ -3962,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <f>B30-15</f>
         <v>75</v>
@@ -4012,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <f t="shared" ref="B32:B36" si="6">B31-15</f>
         <v>60</v>
@@ -4062,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -4112,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -4162,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4212,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4262,39 +4391,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="10" t="s">
+      <c r="O39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -4341,7 +4470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>90</v>
       </c>
@@ -4388,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <f>B41-15</f>
         <v>75</v>
@@ -4438,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <f t="shared" ref="B43:B47" si="9">B42-15</f>
         <v>60</v>
@@ -4488,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <f t="shared" si="9"/>
         <v>45</v>
@@ -4538,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -4588,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
@@ -4638,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4690,75 +4819,75 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="O17:R17"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="O39:R39"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="O17:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:R47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4805,7 +4934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>90</v>
       </c>
@@ -4852,7 +4981,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <f>B7-15</f>
         <v>75</v>
@@ -4902,7 +5031,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <f t="shared" ref="B9:B13" si="0">B8-15</f>
         <v>60</v>
@@ -4952,7 +5081,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5002,7 +5131,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5052,7 +5181,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5102,7 +5231,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5152,39 +5281,39 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -5231,7 +5360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>90</v>
       </c>
@@ -5278,7 +5407,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <f>B19-15</f>
         <v>75</v>
@@ -5328,7 +5457,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <f t="shared" ref="B21:B25" si="3">B20-15</f>
         <v>60</v>
@@ -5378,7 +5507,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5428,7 +5557,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5478,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -5528,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5578,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5595,39 +5724,39 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="H28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
       <c r="N28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -5674,7 +5803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>90</v>
       </c>
@@ -5721,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <f>B30-15</f>
         <v>75</v>
@@ -5771,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <f t="shared" ref="B32:B36" si="6">B31-15</f>
         <v>60</v>
@@ -5821,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -5871,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -5921,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -5971,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6021,39 +6150,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="10" t="s">
+      <c r="O39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -6100,7 +6229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>90</v>
       </c>
@@ -6147,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <f>B41-15</f>
         <v>75</v>
@@ -6197,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <f t="shared" ref="B43:B47" si="9">B42-15</f>
         <v>60</v>
@@ -6247,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <f t="shared" si="9"/>
         <v>45</v>
@@ -6297,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -6347,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
@@ -6397,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6449,70 +6578,70 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="O17:R17"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="O39:R39"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="O17:R17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -6559,7 +6688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>90</v>
       </c>
@@ -6606,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f>B8-15</f>
         <v>75</v>
@@ -6656,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f t="shared" ref="B10:B14" si="0">B9-15</f>
         <v>60</v>
@@ -6706,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6756,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6806,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6856,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6917,66 +7046,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="12">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="T5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>60</v>
       </c>
@@ -7004,36 +7148,45 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
         <v>60</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <f>L6-5</f>
         <v>55</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="10">
         <f t="shared" ref="N6:R6" si="1">M6-5</f>
         <v>50</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="16">
+        <v>57.44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -7058,32 +7211,43 @@
       <c r="I7" s="9">
         <v>-3.41714880958722E-5</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="15">
         <v>-2.4418285516719602E-4</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="15">
         <v>-3.0778591887778699E-4</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="15">
         <v>-3.8560076352526601E-4</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="15">
         <v>-4.51549091744905E-4</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="15">
         <v>-4.8150479480212202E-4</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="15">
         <v>-5.10724267628524E-4</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="15">
         <v>-4.9788789751207705E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="14">
+        <v>-4.3612000000000002E-4</v>
+      </c>
+      <c r="U7" s="14">
+        <f>M7</f>
+        <v>-3.0778591887778699E-4</v>
+      </c>
+      <c r="V7" s="14">
+        <f>T7-U7</f>
+        <v>-1.2833408112221303E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -7108,32 +7272,32 @@
       <c r="I8" s="9">
         <v>7.0948789382514702E-3</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="15">
         <v>3.1592476594434802E-4</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="15">
         <v>4.7449025019973202E-4</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="15">
         <v>7.7239781160635501E-4</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="15">
         <v>1.3117119783633299E-3</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="15">
         <v>2.28980234913074E-3</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="15">
         <v>4.0365862613823897E-3</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="15">
         <v>7.1247945485558304E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -7141,42 +7305,50 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K9" s="10"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>2</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>60</v>
       </c>
@@ -7204,36 +7376,45 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
         <v>60</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <f>L11-5</f>
         <v>55</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <f t="shared" ref="N11:R11" si="3">M11-5</f>
         <v>50</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="10">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="10">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="10">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="10">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="16">
+        <v>53.883099999999999</v>
+      </c>
+      <c r="V11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -7258,32 +7439,43 @@
       <c r="I12" s="9">
         <v>1.61911931445671E-3</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="15">
         <v>9.2209982382471397E-4</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="15">
         <v>1.1548573225405401E-3</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="15">
         <v>1.56349386036029E-3</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="15">
         <v>1.9693845359400899E-3</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="15">
         <v>2.4217303939699899E-3</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="15">
         <v>2.7540626398422901E-3</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="15">
         <v>3.3583214962169998E-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="14">
+        <v>6.9541000000000004E-4</v>
+      </c>
+      <c r="U12" s="14">
+        <f>M12</f>
+        <v>1.1548573225405401E-3</v>
+      </c>
+      <c r="V12" s="14">
+        <f>T12-U12</f>
+        <v>-4.5944732254054005E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -7308,32 +7500,32 @@
       <c r="I13" s="9">
         <v>7.0992146752609699E-3</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="15">
         <v>5.0775219516712604E-4</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="15">
         <v>6.6355545857318401E-4</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="15">
         <v>1.0284187054903299E-3</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="15">
         <v>1.6047673297552301E-3</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="15">
         <v>2.5510553421825002E-3</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="15">
         <v>4.1898214189159504E-3</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="15">
         <v>7.2452191974482398E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7341,42 +7533,50 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K14" s="10"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>3</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="T15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>60</v>
       </c>
@@ -7404,36 +7604,45 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10">
         <v>60</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="10">
         <f>L16-5</f>
         <v>55</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <f t="shared" ref="N16:R16" si="5">M16-5</f>
         <v>50</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="10">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="10">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="10">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="10">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="17">
+        <v>38.9</v>
+      </c>
+      <c r="V16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -7458,32 +7667,43 @@
       <c r="I17" s="9">
         <v>3.9201272099592E-3</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="15">
         <v>4.6706650030491E-4</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="15">
         <v>6.3362835188788798E-4</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="15">
         <v>8.8422796159014802E-4</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="15">
         <v>1.1804504785950401E-3</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="15">
         <v>1.53628650276499E-3</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="15">
         <v>1.8599487396029201E-3</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="15">
         <v>2.5360260889802999E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="14">
+        <v>9.5219E-4</v>
+      </c>
+      <c r="U17" s="14">
+        <f>P17</f>
+        <v>1.53628650276499E-3</v>
+      </c>
+      <c r="V17" s="14">
+        <f>T17-U17</f>
+        <v>-5.8409650276499E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -7508,48 +7728,73 @@
       <c r="I18" s="9">
         <v>7.13728712060171E-3</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="15">
         <v>3.66822236813724E-4</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="15">
         <v>5.0812281651283105E-4</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="15">
         <v>8.2946618387239599E-4</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="15">
         <v>1.3980287332269999E-3</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="15">
         <v>2.41956148991253E-3</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="15">
         <v>4.1148268401237399E-3</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="15">
         <v>7.2515164053988303E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23" s="14">
+        <f>T7</f>
+        <v>-4.3612000000000002E-4</v>
+      </c>
+      <c r="T23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -7565,144 +7810,170 @@
       <c r="E24" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <f>T12</f>
+        <v>6.9541000000000004E-4</v>
+      </c>
+      <c r="T24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>90</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="11">
         <v>1.5472487957028901E-3</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>2.6829370354889601E-3</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <v>4.3302348564401797E-3</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>4.9900882100856504E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="14">
+        <f>T17</f>
+        <v>9.5219E-4</v>
+      </c>
+      <c r="T25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f>A25-15</f>
         <v>75</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="11">
         <v>1.39764312150642E-3</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>2.40120373447692E-3</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="11">
         <v>3.6961770252831498E-3</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>4.5613712777088896E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ref="A27:A31" si="6">A26-15</f>
         <v>60</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="11">
         <v>1.1335751846473399E-3</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>1.9106642897506101E-3</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="11">
         <v>3.0605437659457601E-3</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>3.8977317570133602E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="11">
         <v>7.9334050143425102E-4</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>1.4384154141449501E-3</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="11">
         <v>2.25437669975252E-3</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <v>3.2975059668812002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="11">
         <v>5.5868404832126902E-4</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>1.1034904300460801E-3</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="11">
         <v>1.6360006072654401E-3</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <v>2.5331651692455698E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="11">
         <v>5.6037844838613599E-4</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>8.3729865786862795E-4</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="11">
         <v>1.11523958656432E-3</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <v>1.9489734398989E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="11">
         <v>5.24019394946536E-4</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>6.4794985052782405E-4</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="11">
         <v>9.0675840644693396E-4</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <v>1.6553587277590199E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -7719,128 +7990,128 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>90</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="11">
         <v>4.1296967360596599E-4</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <v>8.5631357227666295E-4</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="11">
         <v>2.3367749719898898E-3</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="11">
         <v>7.0574809634244501E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f>A36-15</f>
         <v>75</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>3.9235690696251302E-4</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <v>8.4266391694701604E-4</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="11">
         <v>2.3549784337949199E-3</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="11">
         <v>7.2041053429457904E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ref="A38:A42" si="7">A37-15</f>
         <v>60</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="11">
         <v>3.6966859641754201E-4</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <v>8.1895807259957799E-4</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="11">
         <v>2.3131339853941901E-3</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="11">
         <v>7.0858903571889599E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="11">
         <v>3.3390682088014801E-4</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="11">
         <v>8.0237156310388196E-4</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="11">
         <v>2.3307887252968901E-3</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="11">
         <v>7.1479880564852098E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="11">
         <v>2.93151165035508E-4</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>7.6729794762961205E-4</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="11">
         <v>2.2604919242967402E-3</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="11">
         <v>7.0872673458018901E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>2.6220208175916601E-4</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="11">
         <v>7.3730124573197003E-4</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="11">
         <v>2.2489201181642099E-3</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="11">
         <v>7.05196901451032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>2.5657268824532498E-4</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <v>7.3482360490428401E-4</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="11">
         <v>2.3010693372688702E-3</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="11">
         <v>7.0823936964544898E-3</v>
       </c>
     </row>

--- a/AMPS2019/figures data/comparisons.xlsx
+++ b/AMPS2019/figures data/comparisons.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A87353-698F-4F41-9B1A-B2CA62F2A4A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="magnitude" sheetId="1" r:id="rId1"/>
     <sheet name="fase" sheetId="2" r:id="rId2"/>
     <sheet name="ambos" sheetId="3" r:id="rId3"/>
     <sheet name="FE" sheetId="4" r:id="rId4"/>
+    <sheet name="Hybrid all" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="41">
   <si>
     <t>km = 5</t>
   </si>
@@ -125,17 +125,41 @@
   <si>
     <t>phi0 = 0</t>
   </si>
+  <si>
+    <t>KxS = -0.1</t>
+  </si>
+  <si>
+    <t>KaS = 0</t>
+  </si>
+  <si>
+    <t>KxS = -0</t>
+  </si>
+  <si>
+    <t>KaS =10</t>
+  </si>
+  <si>
+    <t>Detector híbrido</t>
+  </si>
+  <si>
+    <t>MAG STEP ONLY</t>
+  </si>
+  <si>
+    <t>PHASE STEP ONLY</t>
+  </si>
+  <si>
+    <t>phi_0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -153,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +193,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,31 +250,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,7 +301,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -291,6 +340,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -316,7 +366,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -412,7 +462,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0AB5-48FD-9B14-48E48CE2539A}"/>
             </c:ext>
@@ -504,7 +554,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0AB5-48FD-9B14-48E48CE2539A}"/>
             </c:ext>
@@ -596,7 +646,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0AB5-48FD-9B14-48E48CE2539A}"/>
             </c:ext>
@@ -688,7 +738,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0AB5-48FD-9B14-48E48CE2539A}"/>
             </c:ext>
@@ -702,11 +752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188088344"/>
-        <c:axId val="188087560"/>
+        <c:axId val="188126576"/>
+        <c:axId val="188127360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188088344"/>
+        <c:axId val="188126576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,15 +810,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188087560"/>
+        <c:crossAx val="188127360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188087560"/>
+        <c:axId val="188127360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,10 +872,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188088344"/>
+        <c:crossAx val="188126576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -839,6 +889,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -864,7 +915,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -894,7 +945,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -906,7 +957,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -949,6 +1000,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -974,7 +1026,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1070,7 +1122,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-23BA-42A0-A5BC-63DBBBEC5986}"/>
             </c:ext>
@@ -1162,7 +1214,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-23BA-42A0-A5BC-63DBBBEC5986}"/>
             </c:ext>
@@ -1254,7 +1306,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-23BA-42A0-A5BC-63DBBBEC5986}"/>
             </c:ext>
@@ -1346,7 +1398,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-23BA-42A0-A5BC-63DBBBEC5986}"/>
             </c:ext>
@@ -1360,11 +1412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188089912"/>
-        <c:axId val="185875960"/>
+        <c:axId val="235970280"/>
+        <c:axId val="235970672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188089912"/>
+        <c:axId val="235970280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,15 +1470,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185875960"/>
+        <c:crossAx val="235970672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185875960"/>
+        <c:axId val="235970672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,10 +1532,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188089912"/>
+        <c:crossAx val="235970280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1497,6 +1549,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1522,7 +1575,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1552,7 +1605,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2695,7 +2748,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2784,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2810,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2795,7 +2848,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2830,23 +2883,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2882,26 +2918,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3074,58 +3093,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:F37"/>
+      <selection activeCell="B30" sqref="B30:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3172,7 +3191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>90</v>
       </c>
@@ -3219,7 +3238,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f>B7-15</f>
         <v>75</v>
@@ -3269,7 +3288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ref="B9:B13" si="0">B8-15</f>
         <v>60</v>
@@ -3319,7 +3338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3369,7 +3388,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3419,7 +3438,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3469,7 +3488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3519,39 +3538,39 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3598,7 +3617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>90</v>
       </c>
@@ -3645,7 +3664,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>B19-15</f>
         <v>75</v>
@@ -3695,7 +3714,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ref="B21:B25" si="3">B20-15</f>
         <v>60</v>
@@ -3745,7 +3764,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3795,7 +3814,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3845,7 +3864,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3895,7 +3914,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3945,7 +3964,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3962,39 +3981,39 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="N28" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4044,7 +4063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>90</v>
       </c>
@@ -4091,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f>B30-15</f>
         <v>75</v>
@@ -4141,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f t="shared" ref="B32:B36" si="6">B31-15</f>
         <v>60</v>
@@ -4191,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -4241,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -4291,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4341,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4391,39 +4410,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="12" t="s">
+      <c r="O39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -4470,7 +4489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>90</v>
       </c>
@@ -4517,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f>B41-15</f>
         <v>75</v>
@@ -4567,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" ref="B43:B47" si="9">B42-15</f>
         <v>60</v>
@@ -4617,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="9"/>
         <v>45</v>
@@ -4667,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -4717,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
@@ -4767,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4819,75 +4838,75 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="O39:R39"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="O17:R17"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="O39:R39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -4934,7 +4953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>90</v>
       </c>
@@ -4981,7 +5000,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f>B7-15</f>
         <v>75</v>
@@ -5031,7 +5050,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" ref="B9:B13" si="0">B8-15</f>
         <v>60</v>
@@ -5081,7 +5100,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5131,7 +5150,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5181,7 +5200,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5231,7 +5250,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5281,39 +5300,39 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -5360,7 +5379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>90</v>
       </c>
@@ -5407,7 +5426,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>B19-15</f>
         <v>75</v>
@@ -5457,7 +5476,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f t="shared" ref="B21:B25" si="3">B20-15</f>
         <v>60</v>
@@ -5507,7 +5526,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -5557,7 +5576,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5607,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -5657,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5707,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5724,39 +5743,39 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="H28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
       <c r="N28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+    </row>
+    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -5803,7 +5822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>90</v>
       </c>
@@ -5850,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f>B30-15</f>
         <v>75</v>
@@ -5900,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f t="shared" ref="B32:B36" si="6">B31-15</f>
         <v>60</v>
@@ -5950,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -6000,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -6050,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -6100,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -6150,39 +6169,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="12" t="s">
+      <c r="O39" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -6229,7 +6248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>90</v>
       </c>
@@ -6276,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <f>B41-15</f>
         <v>75</v>
@@ -6326,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <f t="shared" ref="B43:B47" si="9">B42-15</f>
         <v>60</v>
@@ -6376,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <f t="shared" si="9"/>
         <v>45</v>
@@ -6426,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -6476,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
@@ -6526,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6578,70 +6597,70 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="O39:R39"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="O17:R17"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="O39:R39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -6688,7 +6707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>90</v>
       </c>
@@ -6735,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <f>B8-15</f>
         <v>75</v>
@@ -6785,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <f t="shared" ref="B10:B14" si="0">B9-15</f>
         <v>60</v>
@@ -6835,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6885,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6935,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6985,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7046,27 +7065,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -7081,7 +7100,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -7091,7 +7110,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -7120,7 +7139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>60</v>
       </c>
@@ -7179,14 +7198,14 @@
       <c r="T6" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="14">
         <v>57.44</v>
       </c>
       <c r="V6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -7214,40 +7233,40 @@
       <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <v>-2.4418285516719602E-4</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <v>-3.0778591887778699E-4</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="13">
         <v>-3.8560076352526601E-4</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="13">
         <v>-4.51549091744905E-4</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="13">
         <v>-4.8150479480212202E-4</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="13">
         <v>-5.10724267628524E-4</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="13">
         <v>-4.9788789751207705E-4</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="12">
         <v>-4.3612000000000002E-4</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="12">
         <f>M7</f>
         <v>-3.0778591887778699E-4</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="12">
         <f>T7-U7</f>
         <v>-1.2833408112221303E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -7275,29 +7294,29 @@
       <c r="K8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <v>3.1592476594434802E-4</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
         <v>4.7449025019973202E-4</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="13">
         <v>7.7239781160635501E-4</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="13">
         <v>1.3117119783633299E-3</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="13">
         <v>2.28980234913074E-3</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="13">
         <v>4.0365862613823897E-3</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="13">
         <v>7.1247945485558304E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -7306,15 +7325,15 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
       </c>
@@ -7332,15 +7351,15 @@
       <c r="K10" s="10">
         <v>2</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
       <c r="T10" t="s">
         <v>25</v>
       </c>
@@ -7348,7 +7367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>60</v>
       </c>
@@ -7407,14 +7426,14 @@
       <c r="T11" t="s">
         <v>26</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="14">
         <v>53.883099999999999</v>
       </c>
       <c r="V11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -7442,40 +7461,40 @@
       <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <v>9.2209982382471397E-4</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <v>1.1548573225405401E-3</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="13">
         <v>1.56349386036029E-3</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="13">
         <v>1.9693845359400899E-3</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="13">
         <v>2.4217303939699899E-3</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="13">
         <v>2.7540626398422901E-3</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="13">
         <v>3.3583214962169998E-3</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="12">
         <v>6.9541000000000004E-4</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="12">
         <f>M12</f>
         <v>1.1548573225405401E-3</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="12">
         <f>T12-U12</f>
         <v>-4.5944732254054005E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -7503,29 +7522,29 @@
       <c r="K13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <v>5.0775219516712604E-4</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <v>6.6355545857318401E-4</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="13">
         <v>1.0284187054903299E-3</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="13">
         <v>1.6047673297552301E-3</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="13">
         <v>2.5510553421825002E-3</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="13">
         <v>4.1898214189159504E-3</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="13">
         <v>7.2452191974482398E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7534,15 +7553,15 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3</v>
       </c>
@@ -7560,15 +7579,15 @@
       <c r="K15" s="10">
         <v>3</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
       <c r="T15" t="s">
         <v>25</v>
       </c>
@@ -7576,7 +7595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>60</v>
       </c>
@@ -7635,14 +7654,14 @@
       <c r="T16" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="15">
         <v>38.9</v>
       </c>
       <c r="V16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -7670,40 +7689,40 @@
       <c r="K17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <v>4.6706650030491E-4</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <v>6.3362835188788798E-4</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="13">
         <v>8.8422796159014802E-4</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="13">
         <v>1.1804504785950401E-3</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="13">
         <v>1.53628650276499E-3</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="13">
         <v>1.8599487396029201E-3</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="13">
         <v>2.5360260889802999E-3</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="12">
         <v>9.5219E-4</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="12">
         <f>P17</f>
         <v>1.53628650276499E-3</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="12">
         <f>T17-U17</f>
         <v>-5.8409650276499E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -7731,29 +7750,29 @@
       <c r="K18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <v>3.66822236813724E-4</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
         <v>5.0812281651283105E-4</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="13">
         <v>8.2946618387239599E-4</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="13">
         <v>1.3980287332269999E-3</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="13">
         <v>2.41956148991253E-3</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="13">
         <v>4.1148268401237399E-3</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="13">
         <v>7.2515164053988303E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -7770,23 +7789,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="12">
         <f>T7</f>
         <v>-4.3612000000000002E-4</v>
       </c>
@@ -7794,7 +7813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -7816,7 +7835,7 @@
       <c r="R24">
         <v>0</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="12">
         <f>T12</f>
         <v>6.9541000000000004E-4</v>
       </c>
@@ -7824,7 +7843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>90</v>
       </c>
@@ -7846,7 +7865,7 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="12">
         <f>T17</f>
         <v>9.5219E-4</v>
       </c>
@@ -7854,7 +7873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>A25-15</f>
         <v>75</v>
@@ -7872,7 +7891,7 @@
         <v>4.5613712777088896E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ref="A27:A31" si="6">A26-15</f>
         <v>60</v>
@@ -7890,7 +7909,7 @@
         <v>3.8977317570133602E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="6"/>
         <v>45</v>
@@ -7908,7 +7927,7 @@
         <v>3.2975059668812002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7926,7 +7945,7 @@
         <v>2.5331651692455698E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -7944,7 +7963,7 @@
         <v>1.9489734398989E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7962,18 +7981,18 @@
         <v>1.6553587277590199E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -7990,7 +8009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>90</v>
       </c>
@@ -8007,7 +8026,7 @@
         <v>7.0574809634244501E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>A36-15</f>
         <v>75</v>
@@ -8025,7 +8044,7 @@
         <v>7.2041053429457904E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ref="A38:A42" si="7">A37-15</f>
         <v>60</v>
@@ -8043,7 +8062,7 @@
         <v>7.0858903571889599E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="7"/>
         <v>45</v>
@@ -8061,7 +8080,7 @@
         <v>7.1479880564852098E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -8079,7 +8098,7 @@
         <v>7.0872673458018901E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="7"/>
         <v>15</v>
@@ -8097,7 +8116,7 @@
         <v>7.05196901451032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -8123,4 +8142,800 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="I4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1">
+        <v>60</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>41.41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f>+B6+15</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>40.64</v>
+      </c>
+      <c r="H7" s="1">
+        <f>+H6+15</f>
+        <v>15</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:B12" si="0">+B7+15</f>
+        <v>30</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>49.47</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H12" si="1">+H7+15</f>
+        <v>30</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>44.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>67.89</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="20">
+        <v>63.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1.19</v>
+      </c>
+      <c r="F10" s="21">
+        <v>87.12</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>1.04</v>
+      </c>
+      <c r="L10" s="20">
+        <v>85.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="21">
+        <v>34.31</v>
+      </c>
+      <c r="F11" s="20">
+        <v>96.79</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K11" s="20">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="L11" s="20">
+        <v>96.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="21">
+        <v>14.78</v>
+      </c>
+      <c r="E12" s="21">
+        <v>91.39</v>
+      </c>
+      <c r="F12" s="20">
+        <v>98.92</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0.08</v>
+      </c>
+      <c r="J12" s="20">
+        <v>14.55</v>
+      </c>
+      <c r="K12" s="20">
+        <v>88.31</v>
+      </c>
+      <c r="L12" s="20">
+        <v>98.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1">
+        <v>60</v>
+      </c>
+      <c r="J17" s="1">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1">
+        <v>40</v>
+      </c>
+      <c r="L17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.17</v>
+      </c>
+      <c r="E18" s="21">
+        <v>56.76</v>
+      </c>
+      <c r="F18" s="20">
+        <v>97.57</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0.17</v>
+      </c>
+      <c r="K18" s="22">
+        <v>86.21</v>
+      </c>
+      <c r="L18" s="20">
+        <v>99.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>+B18+15</f>
+        <v>15</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F19" s="21">
+        <v>84.28</v>
+      </c>
+      <c r="H19" s="1">
+        <f>+H18+15</f>
+        <v>15</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L19" s="22">
+        <v>90.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f t="shared" ref="B20:B24" si="2">+B19+15</f>
+        <v>30</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>43.48</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:H24" si="3">+H19+15</f>
+        <v>30</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>56.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>13.77</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>5.22</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>3.62</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="L23" s="22">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>2.65</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="K24" s="20">
+        <v>5.74</v>
+      </c>
+      <c r="L24" s="22">
+        <v>28.48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>+B32+15</f>
+        <v>15</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" ref="B34:B38" si="4">+B33+15</f>
+        <v>30</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="18">
+        <v>5.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I16:L16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/AMPS2019/figures data/comparisons.xlsx
+++ b/AMPS2019/figures data/comparisons.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
   <si>
     <t>km = 5</t>
   </si>
@@ -149,6 +149,15 @@
   <si>
     <t>phi_0</t>
   </si>
+  <si>
+    <t>f0 + 1%</t>
+  </si>
+  <si>
+    <t>Não muda nada!!!</t>
+  </si>
+  <si>
+    <t>f0 = 59</t>
+  </si>
 </sst>
 </file>
 
@@ -269,19 +278,19 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,7 +349,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -752,11 +760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188126576"/>
-        <c:axId val="188127360"/>
+        <c:axId val="192838200"/>
+        <c:axId val="192842680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188126576"/>
+        <c:axId val="192838200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,12 +821,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188127360"/>
+        <c:crossAx val="192842680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188127360"/>
+        <c:axId val="192842680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +883,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188126576"/>
+        <c:crossAx val="192838200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -889,7 +897,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1000,7 +1007,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1412,11 +1418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235970280"/>
-        <c:axId val="235970672"/>
+        <c:axId val="192796344"/>
+        <c:axId val="192966064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235970280"/>
+        <c:axId val="192796344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,12 +1479,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235970672"/>
+        <c:crossAx val="192966064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235970672"/>
+        <c:axId val="192966064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1541,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235970280"/>
+        <c:crossAx val="192796344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1549,7 +1555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2748,7 +2753,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2789,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,30 +3124,30 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -3545,30 +3550,30 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -3988,30 +3993,30 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
       <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
       <c r="N28" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4417,30 +4422,30 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="16" t="s">
+      <c r="O39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -4838,18 +4843,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="O17:R17"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="O39:R39"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="O17:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4881,30 +4886,30 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="N5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -5307,30 +5312,30 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="H17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="N17" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -5750,30 +5755,30 @@
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="H28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
       <c r="N28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="17" t="s">
+      <c r="O28" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
     </row>
     <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -6176,30 +6181,30 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
       <c r="H39" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
       <c r="N39" t="s">
         <v>8</v>
       </c>
-      <c r="O39" s="16" t="s">
+      <c r="O39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -6597,18 +6602,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="O17:R17"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="I28:L28"/>
     <mergeCell ref="O28:R28"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="O39:R39"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="O17:R17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6635,30 +6640,30 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -7793,12 +7798,12 @@
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="Q23">
         <v>1</v>
       </c>
@@ -7985,12 +7990,12 @@
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -8146,28 +8151,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18:X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8177,26 +8191,44 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="O4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="U4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
@@ -8227,276 +8259,552 @@
       <c r="L5" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="1">
+        <v>60</v>
+      </c>
+      <c r="P5" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>40</v>
+      </c>
+      <c r="R5" s="1">
+        <v>30</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="1">
+        <v>60</v>
+      </c>
+      <c r="V5" s="1">
+        <v>50</v>
+      </c>
+      <c r="W5" s="1">
+        <v>40</v>
+      </c>
+      <c r="X5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
         <v>41.41</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>40.68</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>40.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>+B6+15</f>
         <v>15</v>
       </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
         <v>40.64</v>
       </c>
       <c r="H7" s="1">
         <f>+H6+15</f>
         <v>15</v>
       </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>34.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <f>+N6+15</f>
+        <v>15</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>41.21</v>
+      </c>
+      <c r="T7" s="1">
+        <f>+T6+15</f>
+        <v>15</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
+        <v>0</v>
+      </c>
+      <c r="X7" s="17">
+        <v>41.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" ref="B8:B12" si="0">+B7+15</f>
         <v>30</v>
       </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
         <v>49.47</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ref="H8:H12" si="1">+H7+15</f>
         <v>30</v>
       </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
         <v>44.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N12" si="2">+N7+15</f>
+        <v>30</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>49.6</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" ref="T8:T12" si="3">+T7+15</f>
+        <v>30</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <v>49.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
         <v>67.89</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
         <v>0.01</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="17">
         <v>63.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>67.81</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <v>68.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>1.19</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>87.12</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <v>1.04</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <v>85.92</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>1.17</v>
+      </c>
+      <c r="R10" s="17">
+        <v>87.23</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X10" s="17">
+        <v>87.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
         <v>0.06</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>34.31</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>96.79</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <v>32.229999999999997</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="17">
         <v>96.54</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>35.1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>96.83</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="U11" s="17">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="W11" s="17">
+        <v>35.29</v>
+      </c>
+      <c r="X11" s="17">
+        <v>97.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>0.01</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>14.78</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>91.39</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>98.92</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <v>0.08</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="17">
         <v>14.55</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="17">
         <v>88.31</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <v>98.76</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="P12" s="17">
+        <v>14.82</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>91.42</v>
+      </c>
+      <c r="R12" s="17">
+        <v>99.06</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="U12" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="V12" s="17">
+        <v>14.41</v>
+      </c>
+      <c r="W12" s="17">
+        <v>91.18</v>
+      </c>
+      <c r="X12" s="17">
+        <v>98.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="O16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="U16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -8530,259 +8838,511 @@
       <c r="L17" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="1">
+        <v>60</v>
+      </c>
+      <c r="P17" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>40</v>
+      </c>
+      <c r="R17" s="1">
+        <v>30</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" s="1">
+        <v>60</v>
+      </c>
+      <c r="V17" s="1">
+        <v>50</v>
+      </c>
+      <c r="W17" s="1">
+        <v>40</v>
+      </c>
+      <c r="X17" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
         <v>0.17</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>56.76</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>97.57</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="20">
-        <v>0</v>
-      </c>
-      <c r="J18" s="20">
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
         <v>0.17</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="19">
         <v>86.21</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="17">
         <v>99.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>56.4</v>
+      </c>
+      <c r="R18" s="17">
+        <v>97.49</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <v>0</v>
+      </c>
+      <c r="V18" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="W18" s="17">
+        <v>55.73</v>
+      </c>
+      <c r="X18" s="17">
+        <v>97.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f>+B18+15</f>
         <v>15</v>
       </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <v>84.28</v>
       </c>
       <c r="H19" s="1">
         <f>+H18+15</f>
         <v>15</v>
       </c>
-      <c r="I19" s="20">
-        <v>0</v>
-      </c>
-      <c r="J19" s="20">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21">
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="19">
         <v>90.29</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
+        <f>+N18+15</f>
+        <v>15</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="R19" s="17">
+        <v>84.36</v>
+      </c>
+      <c r="T19" s="1">
+        <f>+T18+15</f>
+        <v>15</v>
+      </c>
+      <c r="U19" s="17">
+        <v>0</v>
+      </c>
+      <c r="V19" s="17">
+        <v>0</v>
+      </c>
+      <c r="W19" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="X19" s="17">
+        <v>84.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B24" si="2">+B19+15</f>
+        <f t="shared" ref="B20:B24" si="4">+B19+15</f>
         <v>30</v>
       </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
         <v>43.48</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:H24" si="3">+H19+15</f>
+        <f t="shared" ref="H20:H24" si="5">+H19+15</f>
         <v>30</v>
       </c>
-      <c r="I20" s="20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
         <v>56.38</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N24" si="6">+N19+15</f>
+        <v>30</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>43</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T24" si="7">+T19+15</f>
+        <v>30</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <v>42.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
         <v>13.77</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="I21" s="20">
-        <v>0</v>
-      </c>
-      <c r="J21" s="20">
-        <v>0</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
         <v>24.34</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="1">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <v>13.6</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="U21" s="17">
+        <v>0</v>
+      </c>
+      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21">
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
         <v>5.22</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="I22" s="20">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20">
-        <v>0</v>
-      </c>
-      <c r="K22" s="20">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
         <v>17.55</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>5.52</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
+        <v>0</v>
+      </c>
+      <c r="X22" s="17">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21">
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
         <v>3.62</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="I23" s="20">
-        <v>0</v>
-      </c>
-      <c r="J23" s="20">
-        <v>0</v>
-      </c>
-      <c r="K23" s="20">
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
         <v>0.86</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="19">
         <v>24.41</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>3.83</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
         <v>2.65</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="I24" s="20">
-        <v>0</v>
-      </c>
-      <c r="J24" s="20">
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
         <v>0.05</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="17">
         <v>5.74</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="19">
         <v>28.48</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="1">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <v>2.75</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="U24" s="17">
+        <v>0</v>
+      </c>
+      <c r="V24" s="17">
+        <v>0</v>
+      </c>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -8790,7 +9350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>60</v>
       </c>
@@ -8804,20 +9364,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="18">
-        <v>0</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0</v>
-      </c>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
         <v>28.68</v>
       </c>
     </row>
@@ -8826,115 +9386,119 @@
         <f>+B32+15</f>
         <v>15</v>
       </c>
-      <c r="C33" s="18">
-        <v>0</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
         <v>3.83</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" ref="B34:B38" si="4">+B33+15</f>
+        <f t="shared" ref="B34:B38" si="8">+B33+15</f>
         <v>30</v>
       </c>
-      <c r="C34" s="18">
-        <v>0</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
         <v>0.36</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="C35" s="18">
-        <v>0</v>
-      </c>
-      <c r="D35" s="18">
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
         <v>0.23</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
-      <c r="D36" s="18">
-        <v>0</v>
-      </c>
-      <c r="E36" s="18">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18">
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
         <v>1.83</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="C37" s="18">
-        <v>0</v>
-      </c>
-      <c r="D37" s="18">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
         <v>4.07</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="C38" s="18">
-        <v>0</v>
-      </c>
-      <c r="D38" s="18">
-        <v>0</v>
-      </c>
-      <c r="E38" s="18">
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
         <v>0.01</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>5.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="U16:X16"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O16:R16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/AMPS2019/figures data/comparisons.xlsx
+++ b/AMPS2019/figures data/comparisons.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="magnitude" sheetId="1" r:id="rId1"/>
-    <sheet name="fase" sheetId="2" r:id="rId2"/>
+    <sheet name="freq" sheetId="2" r:id="rId2"/>
     <sheet name="ambos" sheetId="3" r:id="rId3"/>
     <sheet name="FE" sheetId="4" r:id="rId4"/>
     <sheet name="Hybrid all" sheetId="5" r:id="rId5"/>
+    <sheet name="sensitivity" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="50">
   <si>
     <t>km = 5</t>
   </si>
@@ -157,6 +158,24 @@
   </si>
   <si>
     <t>f0 = 59</t>
+  </si>
+  <si>
+    <t>kf</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>phase only</t>
+  </si>
+  <si>
+    <t>SNR 50</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Detector de fase para saltos em magnitude</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30:F30"/>
     </sheetView>
   </sheetViews>
@@ -4862,10 +4881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R47"/>
+  <dimension ref="A2:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5737,6 +5756,9 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -6600,8 +6622,165 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>60</v>
+      </c>
+      <c r="D54" s="1">
+        <v>50</v>
+      </c>
+      <c r="E54" s="1">
+        <v>40</v>
+      </c>
+      <c r="F54" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E55" s="1">
+        <v>23.43</v>
+      </c>
+      <c r="F55" s="1">
+        <v>75.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <f>B55-15</f>
+        <v>75</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="F56" s="1">
+        <v>72.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <f t="shared" ref="B57:B61" si="12">B56-15</f>
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>71.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F58" s="1">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="F59" s="1">
+        <v>93.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>56.98</v>
+      </c>
+      <c r="F60" s="1">
+        <v>97.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>58.93</v>
+      </c>
+      <c r="D61" s="1">
+        <v>89.73</v>
+      </c>
+      <c r="E61" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="F61" s="1">
+        <v>99.31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C53:F53"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="O5:R5"/>
@@ -8153,8 +8332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18:X24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9502,4 +9681,61 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>